--- a/PSA_Assignment6.xlsx
+++ b/PSA_Assignment6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apoor\IdeaProjects\INFO6205\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D94F82-E138-409D-A53D-B6E29176EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Dual Pivot Quick Sort</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Array Size</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>Copies</t>
+  </si>
+  <si>
+    <t>Swaps</t>
+  </si>
+  <si>
+    <t>Compares</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +66,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +104,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +139,4127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Merge Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>478962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1038191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2236408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4792266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10224821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-541E-49E9-B5EE-39B75EB461C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2240000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-541E-49E9-B5EE-39B75EB461C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swaps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-541E-49E9-B5EE-39B75EB461C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>121474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>566080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1212060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2584104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-541E-49E9-B5EE-39B75EB461C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="917767792"/>
+        <c:axId val="926095552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="917767792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926095552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="926095552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Statistical</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917767792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dual Pivot Quick Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>424599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>913654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1958019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4227945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8959975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3036-4985-8E86-00671FE45B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3036-4985-8E86-00671FE45B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swaps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>669494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1417493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3036-4985-8E86-00671FE45B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>158678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>732436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1593951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3377768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3036-4985-8E86-00671FE45B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="917781712"/>
+        <c:axId val="919610928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="917781712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919610928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="919610928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Statistical Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917781712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heap Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>967615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2095359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4509624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9660027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20599818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B335-4B18-A9B8-95B4F1AB5C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B335-4B18-A9B8-95B4F1AB5C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swaps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>124204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1233555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2627030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B335-4B18-A9B8-95B4F1AB5C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1101358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2362904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5045850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B335-4B18-A9B8-95B4F1AB5C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="949692016"/>
+        <c:axId val="919621968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="949692016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919621968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="919621968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Statistical Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949692016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA6CD2B-0984-6B2B-5B3B-066FBB860AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC9DB9D-C038-4A1B-4794-C4A880A4BE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351BEDDC-3744-FFF1-3276-17B35C3CFD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4524,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>478962</v>
+      </c>
+      <c r="D4" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9740</v>
+      </c>
+      <c r="F4" s="3">
+        <v>121474</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J4" s="3">
+        <v>424599</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>67866</v>
+      </c>
+      <c r="M4" s="3">
+        <v>158678</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>967615</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>124204</v>
+      </c>
+      <c r="T4" s="3">
+        <v>235399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1038191</v>
+      </c>
+      <c r="D5" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>19548</v>
+      </c>
+      <c r="F5" s="3">
+        <v>263081</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5" s="3">
+        <v>913654</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>146087</v>
+      </c>
+      <c r="M5" s="3">
+        <v>340253</v>
+      </c>
+      <c r="O5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2095359</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>268440</v>
+      </c>
+      <c r="T5" s="3">
+        <v>510799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2236408</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>39102</v>
+      </c>
+      <c r="F6" s="3">
+        <v>566080</v>
+      </c>
+      <c r="H6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1958019</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>311862</v>
+      </c>
+      <c r="M6" s="3">
+        <v>732436</v>
+      </c>
+      <c r="O6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>4509624</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>576727</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1101358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>80000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4792266</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2240000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78066</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1212060</v>
+      </c>
+      <c r="H7" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4227945</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>669494</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1593951</v>
+      </c>
+      <c r="O7" s="2">
+        <v>80000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>9660027</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1233555</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2362904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>160000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10224821</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>156205</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2584104</v>
+      </c>
+      <c r="H8" s="2">
+        <v>160000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8959975</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1417493</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3377768</v>
+      </c>
+      <c r="O8" s="2">
+        <v>160000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>20599818</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2627030</v>
+      </c>
+      <c r="T8" s="3">
+        <v>5045850</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>